--- a/ValueSet-ValueSet-R5-v3-MediaType-for-R4-media-type.xlsx
+++ b/ValueSet-ValueSet-R5-v3-MediaType-for-R4-media-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-ValueSet-R5-v3-MediaType-for-R4-media-type.xlsx
+++ b/ValueSet-ValueSet-R5-v3-MediaType-for-R4-media-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
